--- a/test/1_lab_journal.xlsx
+++ b/test/1_lab_journal.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ga26jul\github\promulstm\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57655C68-FEC0-4411-AD4F-D3A8B01EF2B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="overview" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="overview" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,210 +25,205 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">day</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">surface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp_E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an_T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an_p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">an_t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.03.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W(etched)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pt(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Specs Aarhus 150 .mul file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-a_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29.04.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fe3O4(001)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-mul-b_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15.05.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">png-a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.png file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">png-b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02.07.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo SH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XPS Omicron EIS .txt file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xps-eis_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24.07.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20201111--4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Au(111)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Omicron matrix .Z-mtrx file (.mtrx file also need)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.08.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stm-aarhus-flm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STM Specs Aarhus 150 .flm file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26.08.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcmb-test.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qcmb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QCMB Inficon STM2 Controller .log file</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="59">
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>sp_E</t>
+  </si>
+  <si>
+    <t>sp_p</t>
+  </si>
+  <si>
+    <t>sp_t</t>
+  </si>
+  <si>
+    <t>an_T</t>
+  </si>
+  <si>
+    <t>an_p</t>
+  </si>
+  <si>
+    <t>an_t</t>
+  </si>
+  <si>
+    <t>12.03.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_1</t>
+  </si>
+  <si>
+    <t>stm</t>
+  </si>
+  <si>
+    <t>W(etched)</t>
+  </si>
+  <si>
+    <t>Pt(111)</t>
+  </si>
+  <si>
+    <t>STM Specs Aarhus 150 .mul file</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_2</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_3</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-a_4</t>
+  </si>
+  <si>
+    <t>29.04.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_1</t>
+  </si>
+  <si>
+    <t>Fe3O4(001)</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_2</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_3</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_4</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_5</t>
+  </si>
+  <si>
+    <t>stm-aarhus-mul-b_6</t>
+  </si>
+  <si>
+    <t>15.05.2021</t>
+  </si>
+  <si>
+    <t>png-a</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>.png file</t>
+  </si>
+  <si>
+    <t>png-b</t>
+  </si>
+  <si>
+    <t>02.07.2021</t>
+  </si>
+  <si>
+    <t>xps-eis_1</t>
+  </si>
+  <si>
+    <t>xps</t>
+  </si>
+  <si>
+    <t>Mo SH</t>
+  </si>
+  <si>
+    <t>XPS Omicron EIS .txt file</t>
+  </si>
+  <si>
+    <t>xps-eis_2</t>
+  </si>
+  <si>
+    <t>xps-eis_3</t>
+  </si>
+  <si>
+    <t>xps-eis_4</t>
+  </si>
+  <si>
+    <t>24.07.2021</t>
+  </si>
+  <si>
+    <t>20201111--4_1</t>
+  </si>
+  <si>
+    <t>Au(111)</t>
+  </si>
+  <si>
+    <t>STM Omicron matrix .Z-mtrx file (.mtrx file also need)</t>
+  </si>
+  <si>
+    <t>12.08.2021</t>
+  </si>
+  <si>
+    <t>stm-aarhus-flm</t>
+  </si>
+  <si>
+    <t>flm</t>
+  </si>
+  <si>
+    <t>STM Specs Aarhus 150 .flm file</t>
+  </si>
+  <si>
+    <t>26.08.2021</t>
+  </si>
+  <si>
+    <t>qcmb-test.log</t>
+  </si>
+  <si>
+    <t>qcmb</t>
+  </si>
+  <si>
+    <t>QCMB Inficon STM2 Controller .log file</t>
+  </si>
+  <si>
+    <t>stm-rhk-sm4</t>
+  </si>
+  <si>
+    <t>08.09.2021</t>
+  </si>
+  <si>
+    <t>Pt/Ir(cut)</t>
+  </si>
+  <si>
+    <t>HOPG</t>
+  </si>
+  <si>
+    <t>STM RHK SM4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00E+00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -236,7 +236,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -244,112 +244,355 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="17.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="38.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1020" style="0" width="8.57"/>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
+    <col min="1020" max="1024" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -368,36 +611,36 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -406,36 +649,36 @@
       <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>1</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>5E-005</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="H2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I2">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>800</v>
       </c>
-      <c r="K2" s="0" t="n">
-        <v>1E-007</v>
-      </c>
-      <c r="L2" s="0" t="n">
+      <c r="K2">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="L2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -445,17 +688,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -465,17 +708,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -485,17 +728,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -504,36 +747,36 @@
       <c r="F6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="n">
-        <v>4E-005</v>
-      </c>
-      <c r="I6" s="0" t="n">
+      <c r="H6" s="9">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="I6">
         <v>15</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>1000</v>
       </c>
-      <c r="K6" s="9" t="n">
-        <v>5E-007</v>
-      </c>
-      <c r="L6" s="0" t="n">
+      <c r="K6" s="9">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="L6">
         <v>20</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -543,17 +786,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -563,17 +806,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -583,17 +826,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -603,17 +846,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -623,130 +866,130 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -756,184 +999,196 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>52</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="7"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="B2:B5" type="none">
+    <dataValidation sqref="B2:B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="whole">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>999</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/test/1_lab_journal.xlsx
+++ b/test/1_lab_journal.xlsx
@@ -196,7 +196,7 @@
     <t xml:space="preserve">HOPG</t>
   </si>
   <si>
-    <t xml:space="preserve">STM RHK SM4</t>
+    <t xml:space="preserve">STM RHK SM4 .sm4 file</t>
   </si>
   <si>
     <t xml:space="preserve">19.10.2021</t>
@@ -208,7 +208,7 @@
     <t xml:space="preserve">aes</t>
   </si>
   <si>
-    <t xml:space="preserve">AES Staib DESA</t>
+    <t xml:space="preserve">AES Staib DESA .dat file</t>
   </si>
 </sst>
 </file>
@@ -363,10 +363,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>

--- a/test/1_lab_journal.xlsx
+++ b/test/1_lab_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
   <si>
     <t xml:space="preserve">day</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t xml:space="preserve">AES Staib DESA .dat file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23.10.2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stm-nanonis-sxm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STM Nanonis .sxm file</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20"/>
@@ -834,8 +843,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="2"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2"/>
